--- a/数据整理/stocks/A股/创业板/300109-新开源.xlsx
+++ b/数据整理/stocks/A股/创业板/300109-新开源.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -613,56 +665,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300109-新开源.xlsx
+++ b/数据整理/stocks/A股/创业板/300109-新开源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -498,6 +515,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
